--- a/results/I3_N5_M2_T15_C150_DepCentral_s0_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1835.909519245784</v>
+        <v>350.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03799986839294434</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.57702921450956</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.920008496410603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.122498527679113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1204.550000000006</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>616.5799999999999</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.079991503589412</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.702597972850338</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="7">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.79834375740628</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,146 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>245.285</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>239.745</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>253.27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>244.725</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>253.81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6400000000006</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2250000000006</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3450000000006</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>178.0200000000006</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>175.2100000000006</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>177.1099999999994</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.6149999999994</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>177.4299999999994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>167.8149999999993</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>177.9599999999994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.25999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>245.285</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>239.745</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>253.27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>244.725</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>253.81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>167.6400000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.2250000000006</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>173.3450000000006</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>178.0200000000006</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>175.2100000000006</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>95.28500000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>89.74500000000003</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>103.27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>94.72499999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>103.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>17.64000000000055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.22500000000056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>23.3450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>28.02000000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>25.21000000000058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2124,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2135,141 +1940,9 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
